--- a/src/main/resources/usernames.xlsx
+++ b/src/main/resources/usernames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,60 +24,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Username1@xyz.com</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>Password3</t>
-  </si>
-  <si>
-    <t>Password4</t>
-  </si>
-  <si>
-    <t>Password5</t>
-  </si>
-  <si>
-    <t>Password6</t>
-  </si>
-  <si>
-    <t>Username2@xyz.com</t>
-  </si>
-  <si>
-    <t>Username3@xyz.com</t>
-  </si>
-  <si>
-    <t>Username4@xyz.com</t>
-  </si>
-  <si>
-    <t>Username5@xyz.com</t>
-  </si>
-  <si>
-    <t>Username6@xyz.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Thato</t>
+  </si>
+  <si>
+    <t>thato1</t>
+  </si>
+  <si>
+    <t>Piet</t>
+  </si>
+  <si>
+    <t>piet1</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>smith1</t>
+  </si>
+  <si>
+    <t>Nkosi</t>
+  </si>
+  <si>
+    <t>nkosi1</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>tim1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,16 +86,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,20 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -409,56 +388,38 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A2:A6" r:id="rId3" display="Username1@xyz.com"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>